--- a/데이터/중도탈락 학생 현황_학과별/의학계열/전처리 후/2023_대학_의학계열.xlsx
+++ b/데이터/중도탈락 학생 현황_학과별/의학계열/전처리 후/2023_대학_의학계열.xlsx
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="26">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.45</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="40">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>1.55</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="58">
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
